--- a/用户导入模板.xlsx
+++ b/用户导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuld/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40801756-EE49-574F-BA6C-B210E57C3150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5644095-3B1B-AD40-8682-AC70EA9D3854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>user_id_2@1.c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id_3@1.c</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -652,6 +656,44 @@
       </c>
       <c r="P3" s="2"/>
     </row>
+    <row r="4" spans="1:16" ht="16">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -659,6 +701,8 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{5CBDBEAC-D1A9-C342-A57B-F23EB7605308}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{3728A9DF-7A46-1543-88A9-25C454C5A49C}"/>
     <hyperlink ref="D3" r:id="rId4" xr:uid="{974CAAF7-E03B-794B-8B81-68EC6BD21E7A}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{9725B3AD-9828-6A44-9261-B098F8636BDF}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{57A6FB09-7E92-2F49-8D1B-7612D994950C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/用户导入模板.xlsx
+++ b/用户导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuld/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5644095-3B1B-AD40-8682-AC70EA9D3854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5D3DA-E57E-C547-B8A6-6D87D8895CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>user_id_3@1.c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +526,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -658,10 +666,10 @@
     </row>
     <row r="4" spans="1:16" ht="16">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>24</v>

--- a/用户导入模板.xlsx
+++ b/用户导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuld/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5D3DA-E57E-C547-B8A6-6D87D8895CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EFEF24-7F89-3E47-9A14-BE4E72511598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -70,9 +70,6 @@
     <t>只读用戶应用项目</t>
   </si>
   <si>
-    <t>用户1</t>
-  </si>
-  <si>
     <t>否</t>
   </si>
   <si>
@@ -80,14 +77,6 @@
   </si>
   <si>
     <t>用户2</t>
-  </si>
-  <si>
-    <t>user_id_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id_1@1.c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Calong@2015</t>
@@ -523,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -590,127 +579,87 @@
     </row>
     <row r="2" spans="1:16" ht="16">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="16">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="16">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{7FAC6E32-C079-D54E-B287-ECF92CFADC13}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{5CBDBEAC-D1A9-C342-A57B-F23EB7605308}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{3728A9DF-7A46-1543-88A9-25C454C5A49C}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{974CAAF7-E03B-794B-8B81-68EC6BD21E7A}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{9725B3AD-9828-6A44-9261-B098F8636BDF}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{57A6FB09-7E92-2F49-8D1B-7612D994950C}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5CBDBEAC-D1A9-C342-A57B-F23EB7605308}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{974CAAF7-E03B-794B-8B81-68EC6BD21E7A}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{9725B3AD-9828-6A44-9261-B098F8636BDF}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{57A6FB09-7E92-2F49-8D1B-7612D994950C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/用户导入模板.xlsx
+++ b/用户导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuld/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EFEF24-7F89-3E47-9A14-BE4E72511598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B1316-E8C5-6B47-BED4-BB78933B53F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
